--- a/test/datafiles/annealingCumRew10-200Arms_spread_and_far.xlsx
+++ b/test/datafiles/annealingCumRew10-200Arms_spread_and_far.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="14490" windowHeight="13095" tabRatio="833" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="14490" windowHeight="13095" tabRatio="833" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="200Arms_cumrew_spreadArms" sheetId="1" r:id="rId1"/>
@@ -8780,24 +8780,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="139621120"/>
-        <c:axId val="139622656"/>
+        <c:axId val="49521792"/>
+        <c:axId val="49523328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139621120"/>
+        <c:axId val="49521792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139622656"/>
+        <c:crossAx val="49523328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139622656"/>
+        <c:axId val="49523328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="450"/>
@@ -8806,20 +8806,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139621120"/>
+        <c:crossAx val="49521792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16469,24 +16468,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134693632"/>
-        <c:axId val="134695168"/>
+        <c:axId val="50169728"/>
+        <c:axId val="50171264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134693632"/>
+        <c:axId val="50169728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134695168"/>
+        <c:crossAx val="50171264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134695168"/>
+        <c:axId val="50171264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="450"/>
@@ -16495,7 +16494,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134693632"/>
+        <c:crossAx val="50169728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16508,7 +16507,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -24158,24 +24157,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="146577664"/>
-        <c:axId val="141743232"/>
+        <c:axId val="50485888"/>
+        <c:axId val="50499968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146577664"/>
+        <c:axId val="50485888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141743232"/>
+        <c:crossAx val="50499968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141743232"/>
+        <c:axId val="50499968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="450"/>
@@ -24184,7 +24183,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146577664"/>
+        <c:crossAx val="50485888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24197,7 +24196,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -31847,24 +31846,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="143827712"/>
-        <c:axId val="143829248"/>
+        <c:axId val="50736512"/>
+        <c:axId val="50738304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143827712"/>
+        <c:axId val="50736512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143829248"/>
+        <c:crossAx val="50738304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143829248"/>
+        <c:axId val="50738304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="450"/>
@@ -31873,7 +31872,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143827712"/>
+        <c:crossAx val="50736512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31886,7 +31885,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -31937,10 +31936,10 @@
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -31967,15 +31966,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>38099</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32007,10 +32006,10 @@
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39918,7 +39917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:SG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -55094,7 +55093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:SG5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
